--- a/data/trans_camb/P16A09-Clase-trans_camb.xlsx
+++ b/data/trans_camb/P16A09-Clase-trans_camb.xlsx
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-2,0; 2,72</t>
+          <t>-2,22; 2,51</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-3,7; -0,25</t>
+          <t>-3,78; -0,27</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-3,47; -0,05</t>
+          <t>-3,36; 0,04</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-5,06; 0,19</t>
+          <t>-5,06; 0,34</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-5,38; -0,05</t>
+          <t>-5,09; -0,13</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-3,8; 1,44</t>
+          <t>-3,56; 1,77</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-2,28; 0,99</t>
+          <t>-2,59; 0,85</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-3,47; -0,61</t>
+          <t>-3,43; -0,63</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-2,69; 0,24</t>
+          <t>-2,62; 0,31</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-61,88; 205,19</t>
+          <t>-66,12; 166,0</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 16,88</t>
+          <t>-100,0; 11,75</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-89,1; 17,39</t>
+          <t>-88,31; 22,75</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-90,9; 37,13</t>
+          <t>-89,58; 64,01</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-92,42; 23,47</t>
+          <t>-91,39; 30,9</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-64,45; 77,22</t>
+          <t>-61,56; 113,5</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-65,61; 53,0</t>
+          <t>-68,87; 49,39</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-88,74; -22,83</t>
+          <t>-88,04; -18,6</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-64,99; 16,16</t>
+          <t>-64,17; 21,98</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-0,97; 2,29</t>
+          <t>-1,05; 2,28</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-2,67; -0,48</t>
+          <t>-2,71; -0,48</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-1,28; 1,64</t>
+          <t>-1,41; 1,64</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-2,53; 2,54</t>
+          <t>-2,42; 2,46</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-3,62; 0,53</t>
+          <t>-3,43; 0,77</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-0,52; 4,19</t>
+          <t>-0,67; 3,83</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-1,22; 1,63</t>
+          <t>-1,15; 1,65</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-2,47; -0,16</t>
+          <t>-2,49; -0,14</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-0,57; 2,11</t>
+          <t>-0,68; 2,11</t>
         </is>
       </c>
     </row>
@@ -1007,7 +1007,7 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-66,82; 530,11</t>
+          <t>-64,82; 512,54</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
@@ -1017,37 +1017,37 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-70,77; 384,85</t>
+          <t>-73,75; 324,51</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-68,39; 250,08</t>
+          <t>-68,39; 208,38</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-90,52; 91,89</t>
+          <t>-91,44; 117,21</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-25,13; 390,06</t>
+          <t>-27,45; 322,36</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-49,2; 144,6</t>
+          <t>-49,96; 165,57</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-92,08; 12,37</t>
+          <t>-92,8; 8,72</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-30,06; 189,22</t>
+          <t>-29,37; 192,64</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-2,44; 1,38</t>
+          <t>-2,63; 1,42</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-3,71; -0,57</t>
+          <t>-3,59; -0,38</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-3,46; 0,78</t>
+          <t>-3,73; 0,69</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-7,88; 1,67</t>
+          <t>-8,36; 1,79</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-8,21; 1,93</t>
+          <t>-8,28; 2,89</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-4,2; 7,55</t>
+          <t>-4,16; 7,49</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-2,84; 0,83</t>
+          <t>-2,82; 1,15</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-3,99; -0,4</t>
+          <t>-3,83; -0,19</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-3,64; 1,33</t>
+          <t>-3,39; 1,35</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-65,95; 80,84</t>
+          <t>-69,08; 83,34</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-92,35; -12,29</t>
+          <t>-93,02; -5,97</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-87,6; 32,37</t>
+          <t>-85,32; 35,01</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-78,54; 63,87</t>
+          <t>-79,44; 63,01</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-86,35; 69,63</t>
+          <t>-86,45; 84,83</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-44,55; 210,32</t>
+          <t>-43,61; 209,56</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-61,26; 34,56</t>
+          <t>-59,37; 47,02</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-82,78; -6,83</t>
+          <t>-81,69; 4,02</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-74,32; 42,21</t>
+          <t>-71,45; 43,32</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-3,56; -0,5</t>
+          <t>-3,45; -0,6</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-3,64; -0,83</t>
+          <t>-3,68; -0,9</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-3,2; -0,23</t>
+          <t>-3,15; -0,39</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-2,88; 0,83</t>
+          <t>-2,79; 0,76</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-3,87; -0,43</t>
+          <t>-3,81; -0,42</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-3,44; 0,27</t>
+          <t>-3,73; 0,22</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-2,8; -0,46</t>
+          <t>-2,77; -0,42</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-3,31; -1,12</t>
+          <t>-3,38; -1,17</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-2,83; -0,52</t>
+          <t>-2,76; -0,45</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-67,38; -11,98</t>
+          <t>-66,79; -15,86</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-70,42; -19,17</t>
+          <t>-71,98; -24,08</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-61,4; -2,92</t>
+          <t>-62,19; -8,98</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-57,97; 30,08</t>
+          <t>-57,49; 27,97</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-75,64; -10,74</t>
+          <t>-76,66; -9,61</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-68,95; 5,07</t>
+          <t>-70,25; 5,32</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-57,25; -12,91</t>
+          <t>-56,02; -10,02</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-70,28; -31,58</t>
+          <t>-69,29; -30,38</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-57,68; -13,98</t>
+          <t>-59,07; -16,18</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-2,96; 1,45</t>
+          <t>-2,72; 1,52</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-2,95; 1,21</t>
+          <t>-2,76; 1,28</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-2,77; 1,5</t>
+          <t>-2,86; 1,28</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-0,8; 4,44</t>
+          <t>-0,95; 4,39</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-1,93; 3,15</t>
+          <t>-1,94; 3,16</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-1,32; 4,65</t>
+          <t>-1,07; 4,52</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-1,24; 2,49</t>
+          <t>-1,0; 2,58</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-1,75; 1,61</t>
+          <t>-2,02; 1,48</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-0,78; 2,98</t>
+          <t>-1,02; 2,8</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-67,4; 91,43</t>
+          <t>-65,07; 103,1</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-65,19; 75,62</t>
+          <t>-63,67; 84,02</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-64,73; 101,43</t>
+          <t>-63,94; 89,49</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-12,68; 119,44</t>
+          <t>-14,21; 121,23</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-30,56; 85,04</t>
+          <t>-29,98; 86,4</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-21,72; 117,33</t>
+          <t>-18,71; 109,83</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-22,91; 75,5</t>
+          <t>-19,19; 76,85</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-33,29; 46,75</t>
+          <t>-36,41; 45,36</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-15,34; 88,57</t>
+          <t>-18,31; 82,35</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-1,51; 0,0</t>
+          <t>-1,49; 0,0</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-1,51; 0,0</t>
+          <t>-1,62; 0,0</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-1,5; 0,0</t>
+          <t>-1,34; 0,0</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>0,58; 5,62</t>
+          <t>0,69; 5,34</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-3,11; 0,93</t>
+          <t>-3,18; 0,97</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-1,28; 2,7</t>
+          <t>-1,21; 2,68</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>0,32; 4,25</t>
+          <t>0,58; 4,5</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-2,87; 0,55</t>
+          <t>-2,62; 0,52</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-1,53; 1,82</t>
+          <t>-1,42; 1,71</t>
         </is>
       </c>
     </row>
@@ -1886,32 +1886,32 @@
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>6,19; 97,48</t>
+          <t>8,38; 91,38</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-40,82; 17,03</t>
+          <t>-42,67; 17,23</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-16,59; 48,54</t>
+          <t>-16,33; 47,84</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>3,81; 89,02</t>
+          <t>9,35; 95,41</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-44,96; 12,37</t>
+          <t>-42,02; 11,45</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-23,43; 39,52</t>
+          <t>-23,23; 37,17</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-1,67; -0,02</t>
+          <t>-1,66; -0,1</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-2,42; -0,95</t>
+          <t>-2,32; -0,9</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-1,98; -0,43</t>
+          <t>-1,92; -0,46</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-0,36; 1,92</t>
+          <t>-0,38; 1,92</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-2,23; -0,26</t>
+          <t>-2,51; -0,28</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-1,2; 1,14</t>
+          <t>-1,26; 1,1</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>-0,72; 0,63</t>
+          <t>-0,74; 0,72</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>-2,11; -0,8</t>
+          <t>-2,07; -0,78</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>-1,26; 0,12</t>
+          <t>-1,25; 0,12</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-50,53; -0,57</t>
+          <t>-49,11; -2,73</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-69,05; -35,38</t>
+          <t>-68,85; -34,62</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-58,62; -16,62</t>
+          <t>-57,48; -17,83</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-6,68; 42,29</t>
+          <t>-7,08; 42,85</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-41,2; -6,66</t>
+          <t>-43,75; -5,97</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-21,42; 25,6</t>
+          <t>-22,28; 23,54</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>-16,92; 17,44</t>
+          <t>-16,81; 19,54</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>-48,02; -21,31</t>
+          <t>-47,49; -21,73</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>-28,9; 3,62</t>
+          <t>-29,29; 3,29</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P16A09-Clase-trans_camb.xlsx
+++ b/data/trans_camb/P16A09-Clase-trans_camb.xlsx
@@ -1702,7 +1702,7 @@
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
